--- a/2.开发管理/2018-11-21 到 12月9日  开发计划 .xlsx
+++ b/2.开发管理/2018-11-21 到 12月9日  开发计划 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360861F6-07D8-41C5-A4D2-1EF6DA6EA671}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E68A9A-BF79-48B9-9B0F-772ABD2E6F4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="货源模块" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,6 +304,38 @@
   </si>
   <si>
     <t>刘华杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于信用系统公司已采购，暂停开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库区可用接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位可用接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位同步接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库区占用接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位占用接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织销售范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -454,22 +486,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,6 +509,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,8 +807,405 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="13" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E3" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E5" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E7" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E9" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E10" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E11" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="10">
+        <v>43442</v>
+      </c>
+      <c r="E15" s="10">
+        <v>43443</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="10">
+        <v>43444</v>
+      </c>
+      <c r="E17" s="10">
+        <v>43444</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10">
+        <v>43444</v>
+      </c>
+      <c r="E18" s="10">
+        <v>43444</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="10">
+        <v>43445</v>
+      </c>
+      <c r="E19" s="10">
+        <v>43447</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1048576" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F81DE-BC44-42CB-8658-4872D4AE7849}">
+  <dimension ref="A1:F1048576"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -787,14 +1219,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -817,14 +1249,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
+      <c r="A3" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4">
         <v>43426</v>
@@ -832,15 +1264,17 @@
       <c r="E3" s="4">
         <v>43434</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4">
         <v>43426</v>
@@ -851,12 +1285,12 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4">
         <v>43426</v>
@@ -867,12 +1301,12 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4">
         <v>43426</v>
@@ -883,12 +1317,12 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4">
         <v>43426</v>
@@ -899,13 +1333,9 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A8" s="17"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="4">
         <v>43426</v>
       </c>
@@ -915,13 +1345,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A9" s="17"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="4">
         <v>43426</v>
       </c>
@@ -931,13 +1357,9 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A10" s="17"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="4">
         <v>43426</v>
       </c>
@@ -947,13 +1369,9 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A11" s="18"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="4">
         <v>43426</v>
       </c>
@@ -963,99 +1381,131 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4">
+        <v>43426</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43434</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4">
+        <v>43426</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43434</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="13">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="9">
         <v>43442</v>
       </c>
-      <c r="E15" s="13">
-        <v>43443</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="9">
+        <v>43449</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9">
+        <v>43442</v>
+      </c>
+      <c r="E18" s="9">
+        <v>43442</v>
+      </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="9">
+        <v>43442</v>
+      </c>
+      <c r="E19" s="9">
+        <v>43442</v>
+      </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9">
+        <v>43442</v>
+      </c>
+      <c r="E20" s="9">
+        <v>43442</v>
+      </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1099,7 +1549,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="A3:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1107,12 +1557,443 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F81DE-BC44-42CB-8658-4872D4AE7849}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A3F8BE-0D48-46F2-88E8-04ED6E2CF782}">
+  <dimension ref="A1:G1048576"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E3" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E5" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F5" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E7" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F8" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E9" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F9" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E10" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F10" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E11" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E12" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F12" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F13" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="10">
+        <v>43442</v>
+      </c>
+      <c r="E15" s="10">
+        <v>43449</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="10">
+        <v>43442</v>
+      </c>
+      <c r="E17" s="10">
+        <v>43444</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="10">
+        <v>43446</v>
+      </c>
+      <c r="E18" s="10">
+        <v>43447</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="10">
+        <v>43448</v>
+      </c>
+      <c r="E19" s="10">
+        <v>43449</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1048576" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0173EB7E-833A-46E2-8489-ABC81E5275CB}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1122,18 +2003,18 @@
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1156,263 +2037,177 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>18</v>
+      <c r="A3" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4">
-        <v>43426</v>
+        <v>43442</v>
       </c>
       <c r="E3" s="4">
-        <v>43434</v>
+        <v>43444</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4">
-        <v>43426</v>
+        <v>43442</v>
       </c>
       <c r="E4" s="4">
-        <v>43434</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>43444</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E5" s="4">
-        <v>43434</v>
-      </c>
+      <c r="A5" s="17"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E6" s="4">
-        <v>43434</v>
-      </c>
+      <c r="A6" s="17"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E7" s="4">
-        <v>43434</v>
-      </c>
+      <c r="A7" s="17"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E8" s="4">
-        <v>43434</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E9" s="4">
-        <v>43434</v>
-      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E10" s="4">
-        <v>43434</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E11" s="4">
-        <v>43434</v>
-      </c>
+      <c r="A11" s="17"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E12" s="4">
-        <v>43434</v>
-      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E13" s="4">
-        <v>43434</v>
-      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="A14" s="17"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A15" s="17"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="13">
-        <v>43442</v>
-      </c>
-      <c r="E17" s="13">
-        <v>43449</v>
-      </c>
+      <c r="A17" s="17"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="13">
-        <v>43442</v>
-      </c>
-      <c r="E18" s="13">
-        <v>43442</v>
-      </c>
+      <c r="A18" s="17"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="13">
-        <v>43442</v>
-      </c>
-      <c r="E19" s="13">
-        <v>43442</v>
-      </c>
+      <c r="A19" s="17"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="13">
-        <v>43442</v>
-      </c>
-      <c r="E20" s="13">
-        <v>43442</v>
-      </c>
+      <c r="A20" s="17"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1456,679 +2251,6 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A3F8BE-0D48-46F2-88E8-04ED6E2CF782}">
-  <dimension ref="A1:G1048576"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E3" s="14">
-        <v>43434</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E4" s="14">
-        <v>43434</v>
-      </c>
-      <c r="F4" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E5" s="14">
-        <v>43434</v>
-      </c>
-      <c r="F5" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E6" s="14">
-        <v>43434</v>
-      </c>
-      <c r="F6" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E7" s="14">
-        <v>43434</v>
-      </c>
-      <c r="F7" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E8" s="14">
-        <v>43434</v>
-      </c>
-      <c r="F8" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E9" s="14">
-        <v>43434</v>
-      </c>
-      <c r="F9" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E10" s="14">
-        <v>43434</v>
-      </c>
-      <c r="F10" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E11" s="14">
-        <v>43434</v>
-      </c>
-      <c r="F11" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E12" s="14">
-        <v>43434</v>
-      </c>
-      <c r="F12" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E13" s="14">
-        <v>43434</v>
-      </c>
-      <c r="F13" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="E14" s="15"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="4">
-        <v>43442</v>
-      </c>
-      <c r="E15" s="14">
-        <v>43449</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="4">
-        <v>43442</v>
-      </c>
-      <c r="E17" s="14">
-        <v>43444</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C1048576" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0173EB7E-833A-46E2-8489-ABC81E5275CB}">
-  <dimension ref="A1:F1048576"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43442</v>
-      </c>
-      <c r="E3" s="4">
-        <v>43443</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="4">
-        <v>43442</v>
-      </c>
-      <c r="E4" s="4">
-        <v>43443</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C1048576" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2.开发管理/2018-11-21 到 12月9日  开发计划 .xlsx
+++ b/2.开发管理/2018-11-21 到 12月9日  开发计划 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E68A9A-BF79-48B9-9B0F-772ABD2E6F4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F986D98-BEC9-47AD-AE7B-C69E3FEDC891}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="货源模块" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -509,6 +509,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -822,14 +825,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -852,7 +855,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -870,7 +873,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -886,7 +889,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -902,7 +905,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -918,7 +921,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -934,7 +937,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -950,7 +953,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -966,7 +969,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
@@ -982,7 +985,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
@@ -998,7 +1001,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1010,7 +1013,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1022,7 +1025,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="12"/>
@@ -1030,7 +1033,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
@@ -1046,7 +1049,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="12"/>
@@ -1054,7 +1057,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
@@ -1070,7 +1073,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
@@ -1086,7 +1089,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
@@ -1102,7 +1105,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
@@ -1114,7 +1117,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
@@ -1124,7 +1127,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="12"/>
@@ -1204,8 +1207,824 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F81DE-BC44-42CB-8658-4872D4AE7849}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="13" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E3" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E5" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E7" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E9" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E10" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E11" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E12" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="10">
+        <v>43444</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="10">
+        <v>43442</v>
+      </c>
+      <c r="E17" s="10">
+        <v>43449</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="10">
+        <v>43442</v>
+      </c>
+      <c r="E18" s="10">
+        <v>43442</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="10">
+        <v>43442</v>
+      </c>
+      <c r="E19" s="10">
+        <v>43442</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="10">
+        <v>43442</v>
+      </c>
+      <c r="E20" s="10">
+        <v>43442</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1048576" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A3F8BE-0D48-46F2-88E8-04ED6E2CF782}">
+  <dimension ref="A1:G1048576"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E3" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E5" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F5" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E7" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F8" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E9" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F9" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E10" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F10" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E11" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E12" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F12" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="10">
+        <v>43426</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43434</v>
+      </c>
+      <c r="F13" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="10">
+        <v>43442</v>
+      </c>
+      <c r="E15" s="10">
+        <v>43449</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="10">
+        <v>43442</v>
+      </c>
+      <c r="E17" s="10">
+        <v>43444</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="10">
+        <v>43446</v>
+      </c>
+      <c r="E18" s="10">
+        <v>43447</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="10">
+        <v>43448</v>
+      </c>
+      <c r="E19" s="10">
+        <v>43449</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1048576" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0173EB7E-833A-46E2-8489-ABC81E5275CB}">
+  <dimension ref="A1:F1048576"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1215,18 +2034,18 @@
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1249,263 +2068,177 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>18</v>
+      <c r="A3" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4">
-        <v>43426</v>
+        <v>43442</v>
       </c>
       <c r="E3" s="4">
-        <v>43434</v>
+        <v>43444</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4">
-        <v>43426</v>
+        <v>43442</v>
       </c>
       <c r="E4" s="4">
-        <v>43434</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>43444</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E5" s="4">
-        <v>43434</v>
-      </c>
+      <c r="A5" s="18"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E6" s="4">
-        <v>43434</v>
-      </c>
+      <c r="A6" s="18"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E7" s="4">
-        <v>43434</v>
-      </c>
+      <c r="A7" s="18"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E8" s="4">
-        <v>43434</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E9" s="4">
-        <v>43434</v>
-      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E10" s="4">
-        <v>43434</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E11" s="4">
-        <v>43434</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E12" s="4">
-        <v>43434</v>
-      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4">
-        <v>43426</v>
-      </c>
-      <c r="E13" s="4">
-        <v>43434</v>
-      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="A14" s="18"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A15" s="18"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="9">
-        <v>43442</v>
-      </c>
-      <c r="E17" s="9">
-        <v>43449</v>
-      </c>
+      <c r="A17" s="18"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="9">
-        <v>43442</v>
-      </c>
-      <c r="E18" s="9">
-        <v>43442</v>
-      </c>
+      <c r="A18" s="18"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="9">
-        <v>43442</v>
-      </c>
-      <c r="E19" s="9">
-        <v>43442</v>
-      </c>
+      <c r="A19" s="18"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="9">
-        <v>43442</v>
-      </c>
-      <c r="E20" s="9">
-        <v>43442</v>
-      </c>
+      <c r="A20" s="18"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1549,708 +2282,6 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A3F8BE-0D48-46F2-88E8-04ED6E2CF782}">
-  <dimension ref="A1:G1048576"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="10">
-        <v>43426</v>
-      </c>
-      <c r="E3" s="10">
-        <v>43434</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="10">
-        <v>43426</v>
-      </c>
-      <c r="E4" s="10">
-        <v>43434</v>
-      </c>
-      <c r="F4" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="10">
-        <v>43426</v>
-      </c>
-      <c r="E5" s="10">
-        <v>43434</v>
-      </c>
-      <c r="F5" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="10">
-        <v>43426</v>
-      </c>
-      <c r="E6" s="10">
-        <v>43434</v>
-      </c>
-      <c r="F6" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="10">
-        <v>43426</v>
-      </c>
-      <c r="E7" s="10">
-        <v>43434</v>
-      </c>
-      <c r="F7" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="10">
-        <v>43426</v>
-      </c>
-      <c r="E8" s="10">
-        <v>43434</v>
-      </c>
-      <c r="F8" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="10">
-        <v>43426</v>
-      </c>
-      <c r="E9" s="10">
-        <v>43434</v>
-      </c>
-      <c r="F9" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="10">
-        <v>43426</v>
-      </c>
-      <c r="E10" s="10">
-        <v>43434</v>
-      </c>
-      <c r="F10" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="10">
-        <v>43426</v>
-      </c>
-      <c r="E11" s="10">
-        <v>43434</v>
-      </c>
-      <c r="F11" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="10">
-        <v>43426</v>
-      </c>
-      <c r="E12" s="10">
-        <v>43434</v>
-      </c>
-      <c r="F12" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="10">
-        <v>43426</v>
-      </c>
-      <c r="E13" s="10">
-        <v>43434</v>
-      </c>
-      <c r="F13" s="4">
-        <v>43441</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="10">
-        <v>43442</v>
-      </c>
-      <c r="E15" s="10">
-        <v>43449</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="10">
-        <v>43442</v>
-      </c>
-      <c r="E17" s="10">
-        <v>43444</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="10">
-        <v>43446</v>
-      </c>
-      <c r="E18" s="10">
-        <v>43447</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="10">
-        <v>43448</v>
-      </c>
-      <c r="E19" s="10">
-        <v>43449</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C1048576" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0173EB7E-833A-46E2-8489-ABC81E5275CB}">
-  <dimension ref="A1:F1048576"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43442</v>
-      </c>
-      <c r="E3" s="4">
-        <v>43444</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="4">
-        <v>43442</v>
-      </c>
-      <c r="E4" s="4">
-        <v>43444</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C1048576" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2.开发管理/2018-11-21 到 12月9日  开发计划 .xlsx
+++ b/2.开发管理/2018-11-21 到 12月9日  开发计划 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F986D98-BEC9-47AD-AE7B-C69E3FEDC891}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A8AA4B-54CF-4561-8692-94A06AC3267D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="货源模块" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1109,11 +1109,15 @@
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="10">
+        <v>43446</v>
+      </c>
+      <c r="E20" s="10">
+        <v>43452</v>
+      </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1121,9 +1125,15 @@
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="10">
+        <v>43447</v>
+      </c>
+      <c r="E21" s="10">
+        <v>43453</v>
+      </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1207,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F81DE-BC44-42CB-8658-4872D4AE7849}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1438,7 +1448,9 @@
       <c r="D16" s="10">
         <v>43444</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10">
+        <v>43449</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1593,7 +1605,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/2.开发管理/2018-11-21 到 12月9日  开发计划 .xlsx
+++ b/2.开发管理/2018-11-21 到 12月9日  开发计划 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A8AA4B-54CF-4561-8692-94A06AC3267D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB1CDAD-87B6-472B-BE73-C76F4BEB372A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="货源模块" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,18 @@
   </si>
   <si>
     <t>组织销售范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1217,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F81DE-BC44-42CB-8658-4872D4AE7849}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1605,7 +1617,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1937,28 +1949,46 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="10">
+        <v>43448</v>
+      </c>
+      <c r="E20" s="10">
+        <v>43449</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="10">
+        <v>43448</v>
+      </c>
+      <c r="E21" s="10">
+        <v>43449</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="10">
+        <v>43448</v>
+      </c>
+      <c r="E22" s="10">
+        <v>43449</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
